--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-18.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2216"/>
+  <dimension ref="A1:G2147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54499,10 +54499,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="G2080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2081">
@@ -54528,10 +54526,8 @@
       </c>
       <c r="E2081" t="inlineStr"/>
       <c r="F2081" t="inlineStr"/>
-      <c r="G2081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2082">
@@ -54557,10 +54553,8 @@
       </c>
       <c r="E2082" t="inlineStr"/>
       <c r="F2082" t="inlineStr"/>
-      <c r="G2082" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2082" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2083">
@@ -54586,10 +54580,8 @@
       </c>
       <c r="E2083" t="inlineStr"/>
       <c r="F2083" t="inlineStr"/>
-      <c r="G2083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2084">
@@ -54619,10 +54611,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G2084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2085">
@@ -54648,10 +54638,8 @@
       </c>
       <c r="E2085" t="inlineStr"/>
       <c r="F2085" t="inlineStr"/>
-      <c r="G2085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2085" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2086">
@@ -54677,10 +54665,8 @@
       </c>
       <c r="E2086" t="inlineStr"/>
       <c r="F2086" t="inlineStr"/>
-      <c r="G2086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2087">
@@ -54714,10 +54700,8 @@
           <t>$12.1B</t>
         </is>
       </c>
-      <c r="G2087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2087" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2088">
@@ -54747,10 +54731,8 @@
         </is>
       </c>
       <c r="F2088" t="inlineStr"/>
-      <c r="G2088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2089">
@@ -54785,10 +54767,8 @@
       </c>
       <c r="E2090" t="inlineStr"/>
       <c r="F2090" t="inlineStr"/>
-      <c r="G2090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2091">
@@ -54810,10 +54790,8 @@
       </c>
       <c r="E2091" t="inlineStr"/>
       <c r="F2091" t="inlineStr"/>
-      <c r="G2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -54835,10 +54813,8 @@
       </c>
       <c r="E2092" t="inlineStr"/>
       <c r="F2092" t="inlineStr"/>
-      <c r="G2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -54860,10 +54836,8 @@
       </c>
       <c r="E2093" t="inlineStr"/>
       <c r="F2093" t="inlineStr"/>
-      <c r="G2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -54885,10 +54859,8 @@
       </c>
       <c r="E2094" t="inlineStr"/>
       <c r="F2094" t="inlineStr"/>
-      <c r="G2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -54918,10 +54890,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="G2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -54947,10 +54917,8 @@
         </is>
       </c>
       <c r="F2096" t="inlineStr"/>
-      <c r="G2096" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2096" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2097">
@@ -54972,10 +54940,8 @@
       </c>
       <c r="E2097" t="inlineStr"/>
       <c r="F2097" t="inlineStr"/>
-      <c r="G2097" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2097" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2098">
@@ -54997,10 +54963,8 @@
       </c>
       <c r="E2098" t="inlineStr"/>
       <c r="F2098" t="inlineStr"/>
-      <c r="G2098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2099">
@@ -55022,10 +54986,8 @@
       </c>
       <c r="E2099" t="inlineStr"/>
       <c r="F2099" t="inlineStr"/>
-      <c r="G2099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2100">
@@ -55047,10 +55009,8 @@
       </c>
       <c r="E2100" t="inlineStr"/>
       <c r="F2100" t="inlineStr"/>
-      <c r="G2100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2101">
@@ -55072,10 +55032,8 @@
       </c>
       <c r="E2101" t="inlineStr"/>
       <c r="F2101" t="inlineStr"/>
-      <c r="G2101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2102">
@@ -55097,10 +55055,8 @@
       </c>
       <c r="E2102" t="inlineStr"/>
       <c r="F2102" t="inlineStr"/>
-      <c r="G2102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2103">
@@ -55122,10 +55078,8 @@
       </c>
       <c r="E2103" t="inlineStr"/>
       <c r="F2103" t="inlineStr"/>
-      <c r="G2103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2104">
@@ -55147,10 +55101,8 @@
       </c>
       <c r="E2104" t="inlineStr"/>
       <c r="F2104" t="inlineStr"/>
-      <c r="G2104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2105">
@@ -55172,10 +55124,8 @@
         </is>
       </c>
       <c r="F2105" t="inlineStr"/>
-      <c r="G2105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2106">
@@ -55197,10 +55147,8 @@
       </c>
       <c r="E2106" t="inlineStr"/>
       <c r="F2106" t="inlineStr"/>
-      <c r="G2106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2107">
@@ -55222,10 +55170,8 @@
       </c>
       <c r="E2107" t="inlineStr"/>
       <c r="F2107" t="inlineStr"/>
-      <c r="G2107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2108">
@@ -55243,10 +55189,8 @@
       <c r="D2108" t="inlineStr"/>
       <c r="E2108" t="inlineStr"/>
       <c r="F2108" t="inlineStr"/>
-      <c r="G2108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2109">
@@ -55289,10 +55233,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2111">
@@ -55322,10 +55264,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2112">
@@ -55351,10 +55291,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2113">
@@ -55372,10 +55310,8 @@
       <c r="D2113" t="inlineStr"/>
       <c r="E2113" t="inlineStr"/>
       <c r="F2113" t="inlineStr"/>
-      <c r="G2113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2114">
@@ -55397,10 +55333,8 @@
       </c>
       <c r="E2114" t="inlineStr"/>
       <c r="F2114" t="inlineStr"/>
-      <c r="G2114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2115">
@@ -55422,10 +55356,8 @@
       </c>
       <c r="E2115" t="inlineStr"/>
       <c r="F2115" t="inlineStr"/>
-      <c r="G2115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2116">
@@ -55447,10 +55379,8 @@
       </c>
       <c r="E2116" t="inlineStr"/>
       <c r="F2116" t="inlineStr"/>
-      <c r="G2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -55472,10 +55402,8 @@
       </c>
       <c r="E2117" t="inlineStr"/>
       <c r="F2117" t="inlineStr"/>
-      <c r="G2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -55497,10 +55425,8 @@
       </c>
       <c r="E2118" t="inlineStr"/>
       <c r="F2118" t="inlineStr"/>
-      <c r="G2118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2119">
@@ -55522,10 +55448,8 @@
       </c>
       <c r="E2119" t="inlineStr"/>
       <c r="F2119" t="inlineStr"/>
-      <c r="G2119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -55543,10 +55467,8 @@
       <c r="D2120" t="inlineStr"/>
       <c r="E2120" t="inlineStr"/>
       <c r="F2120" t="inlineStr"/>
-      <c r="G2120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2121">
@@ -55564,10 +55486,8 @@
       <c r="D2121" t="inlineStr"/>
       <c r="E2121" t="inlineStr"/>
       <c r="F2121" t="inlineStr"/>
-      <c r="G2121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2122">
@@ -55589,88 +55509,102 @@
       </c>
       <c r="E2122" t="inlineStr"/>
       <c r="F2122" t="inlineStr"/>
-      <c r="G2122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2123" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYJUN</t>
+        </is>
+      </c>
       <c r="C2123" t="inlineStr"/>
-      <c r="D2123" t="inlineStr"/>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E2123" t="inlineStr"/>
-      <c r="F2123" t="inlineStr"/>
-      <c r="G2123" t="inlineStr"/>
+      <c r="F2123" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="G2123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2124">
       <c r="A2124" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2124" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2124" t="inlineStr"/>
-      <c r="D2124" t="inlineStr"/>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E2124" t="inlineStr"/>
       <c r="F2124" t="inlineStr"/>
       <c r="G2124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2125">
       <c r="A2125" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2125" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2125" t="inlineStr"/>
       <c r="D2125" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E2125" t="inlineStr"/>
       <c r="F2125" t="inlineStr"/>
       <c r="G2125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2126">
       <c r="A2126" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2126" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2126" t="inlineStr"/>
-      <c r="D2126" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
+      <c r="D2126" t="inlineStr"/>
       <c r="E2126" t="inlineStr"/>
       <c r="F2126" t="inlineStr"/>
       <c r="G2126" t="inlineStr">
@@ -55682,71 +55616,75 @@
     <row r="2127">
       <c r="A2127" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2127" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2127" t="inlineStr"/>
-      <c r="D2127" t="inlineStr">
-        <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2127" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2127" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+      <c r="D2127" t="inlineStr"/>
+      <c r="E2127" t="inlineStr"/>
+      <c r="F2127" t="inlineStr"/>
       <c r="G2127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="inlineStr">
         <is>
-          <t>Sunday July 13 2025</t>
-        </is>
-      </c>
-      <c r="B2128" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2128" t="inlineStr"/>
       <c r="D2128" t="inlineStr"/>
       <c r="E2128" t="inlineStr"/>
       <c r="F2128" t="inlineStr"/>
-      <c r="G2128" t="inlineStr"/>
+      <c r="G2128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2129">
       <c r="A2129" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2129" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2129" t="inlineStr"/>
       <c r="D2129" t="inlineStr"/>
       <c r="E2129" t="inlineStr"/>
       <c r="F2129" t="inlineStr"/>
-      <c r="G2129" t="inlineStr"/>
+      <c r="G2129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2130">
       <c r="A2130" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2130" t="inlineStr"/>
@@ -55762,12 +55700,12 @@
     <row r="2131">
       <c r="A2131" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr"/>
@@ -55783,131 +55721,111 @@
     <row r="2132">
       <c r="A2132" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2132" t="inlineStr"/>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsMAY</t>
+        </is>
+      </c>
       <c r="C2132" t="inlineStr"/>
-      <c r="D2132" t="inlineStr"/>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>$-7.8B</t>
+        </is>
+      </c>
       <c r="E2132" t="inlineStr"/>
       <c r="F2132" t="inlineStr"/>
-      <c r="G2132" t="inlineStr"/>
+      <c r="G2132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2133">
       <c r="A2133" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2133" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2133" t="inlineStr"/>
       <c r="D2133" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2133" t="inlineStr"/>
-      <c r="F2133" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2133" t="inlineStr"/>
       <c r="G2133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2134" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C2134" t="inlineStr"/>
       <c r="D2134" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E2134" t="inlineStr"/>
-      <c r="F2134" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F2134" t="inlineStr"/>
       <c r="G2134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr"/>
-      <c r="D2135" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2135" t="inlineStr"/>
       <c r="E2135" t="inlineStr"/>
-      <c r="F2135" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2135" t="inlineStr"/>
       <c r="G2135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2136" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJUN</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr"/>
       <c r="C2136" t="inlineStr"/>
-      <c r="D2136" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D2136" t="inlineStr"/>
       <c r="E2136" t="inlineStr"/>
-      <c r="F2136" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G2136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F2136" t="inlineStr"/>
+      <c r="G2136" t="inlineStr"/>
     </row>
     <row r="2137">
       <c r="A2137" t="inlineStr">
@@ -55917,24 +55835,24 @@
       </c>
       <c r="B2137" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2137" t="inlineStr"/>
       <c r="D2137" t="inlineStr">
         <is>
-          <t>321.465</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2137" t="inlineStr"/>
       <c r="F2137" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1.37M</t>
         </is>
       </c>
       <c r="G2137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -55946,24 +55864,24 @@
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr"/>
       <c r="D2138" t="inlineStr">
         <is>
-          <t>320.580</t>
+          <t>1.256M</t>
         </is>
       </c>
       <c r="E2138" t="inlineStr"/>
       <c r="F2138" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>1.29M</t>
         </is>
       </c>
       <c r="G2138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -55975,13 +55893,13 @@
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr"/>
       <c r="D2139" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E2139" t="inlineStr"/>
@@ -55995,117 +55913,145 @@
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
       <c r="D2140" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E2140" t="inlineStr"/>
       <c r="F2140" t="inlineStr"/>
       <c r="G2140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
-      <c r="D2141" t="inlineStr"/>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>60.7</t>
+        </is>
+      </c>
       <c r="E2141" t="inlineStr"/>
       <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2142" t="inlineStr"/>
-      <c r="D2142" t="inlineStr"/>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="E2142" t="inlineStr"/>
       <c r="F2142" t="inlineStr"/>
       <c r="G2142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2143" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJUL</t>
+        </is>
+      </c>
       <c r="C2143" t="inlineStr"/>
-      <c r="D2143" t="inlineStr"/>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>58.1</t>
+        </is>
+      </c>
       <c r="E2143" t="inlineStr"/>
       <c r="F2143" t="inlineStr"/>
-      <c r="G2143" t="inlineStr"/>
+      <c r="G2143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2144">
       <c r="A2144" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2144" t="inlineStr"/>
-      <c r="D2144" t="inlineStr"/>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>64.8</t>
+        </is>
+      </c>
       <c r="E2144" t="inlineStr"/>
       <c r="F2144" t="inlineStr"/>
       <c r="G2144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2145" t="inlineStr"/>
-      <c r="D2145" t="inlineStr"/>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="E2145" t="inlineStr"/>
       <c r="F2145" t="inlineStr"/>
       <c r="G2145" t="inlineStr">
@@ -56117,12 +56063,12 @@
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr"/>
@@ -56138,12 +56084,12 @@
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
@@ -56156,1675 +56102,6 @@
         </is>
       </c>
     </row>
-    <row r="2148">
-      <c r="A2148" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2148" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUL/11</t>
-        </is>
-      </c>
-      <c r="C2148" t="inlineStr"/>
-      <c r="D2148" t="inlineStr"/>
-      <c r="E2148" t="inlineStr"/>
-      <c r="F2148" t="inlineStr"/>
-      <c r="G2148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2149">
-      <c r="A2149" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2149" t="inlineStr">
-        <is>
-          <t>PPI MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2149" t="inlineStr"/>
-      <c r="D2149" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2149" t="inlineStr"/>
-      <c r="F2149" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2150">
-      <c r="A2150" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2150" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2150" t="inlineStr"/>
-      <c r="D2150" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2150" t="inlineStr"/>
-      <c r="F2150" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2151">
-      <c r="A2151" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2151" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2151" t="inlineStr"/>
-      <c r="D2151" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E2151" t="inlineStr"/>
-      <c r="F2151" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G2151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2152">
-      <c r="A2152" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2152" t="inlineStr">
-        <is>
-          <t>PPIJUN</t>
-        </is>
-      </c>
-      <c r="C2152" t="inlineStr"/>
-      <c r="D2152" t="inlineStr">
-        <is>
-          <t>148.072</t>
-        </is>
-      </c>
-      <c r="E2152" t="inlineStr"/>
-      <c r="F2152" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
-      <c r="G2152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2153">
-      <c r="A2153" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2153" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2153" t="inlineStr"/>
-      <c r="D2153" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2153" t="inlineStr"/>
-      <c r="F2153" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2154">
-      <c r="A2154" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2154" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2154" t="inlineStr"/>
-      <c r="D2154" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2154" t="inlineStr"/>
-      <c r="F2154" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G2154" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2155">
-      <c r="A2155" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2155" t="inlineStr">
-        <is>
-          <t>PPI YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2155" t="inlineStr"/>
-      <c r="D2155" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E2155" t="inlineStr"/>
-      <c r="F2155" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G2155" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2156">
-      <c r="A2156" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2156" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C2156" t="inlineStr"/>
-      <c r="D2156" t="inlineStr"/>
-      <c r="E2156" t="inlineStr"/>
-      <c r="F2156" t="inlineStr"/>
-      <c r="G2156" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2157">
-      <c r="A2157" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2157" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2157" t="inlineStr"/>
-      <c r="D2157" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E2157" t="inlineStr"/>
-      <c r="F2157" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2158">
-      <c r="A2158" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2158" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJUN</t>
-        </is>
-      </c>
-      <c r="C2158" t="inlineStr"/>
-      <c r="D2158" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E2158" t="inlineStr"/>
-      <c r="F2158" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G2158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2159">
-      <c r="A2159" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2159" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2159" t="inlineStr"/>
-      <c r="D2159" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E2159" t="inlineStr"/>
-      <c r="F2159" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="G2159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2160">
-      <c r="A2160" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2160" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2160" t="inlineStr"/>
-      <c r="D2160" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2160" t="inlineStr"/>
-      <c r="F2160" t="inlineStr"/>
-      <c r="G2160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2161">
-      <c r="A2161" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2161" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2161" t="inlineStr"/>
-      <c r="D2161" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2161" t="inlineStr"/>
-      <c r="F2161" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2162">
-      <c r="A2162" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2162" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2162" t="inlineStr"/>
-      <c r="D2162" t="inlineStr"/>
-      <c r="E2162" t="inlineStr"/>
-      <c r="F2162" t="inlineStr"/>
-      <c r="G2162" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2163">
-      <c r="A2163" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2163" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2163" t="inlineStr"/>
-      <c r="D2163" t="inlineStr"/>
-      <c r="E2163" t="inlineStr"/>
-      <c r="F2163" t="inlineStr"/>
-      <c r="G2163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2164">
-      <c r="A2164" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2164" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2164" t="inlineStr"/>
-      <c r="D2164" t="inlineStr"/>
-      <c r="E2164" t="inlineStr"/>
-      <c r="F2164" t="inlineStr"/>
-      <c r="G2164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2165">
-      <c r="A2165" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2165" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2165" t="inlineStr"/>
-      <c r="D2165" t="inlineStr"/>
-      <c r="E2165" t="inlineStr"/>
-      <c r="F2165" t="inlineStr"/>
-      <c r="G2165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2166">
-      <c r="A2166" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2166" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2166" t="inlineStr"/>
-      <c r="D2166" t="inlineStr"/>
-      <c r="E2166" t="inlineStr"/>
-      <c r="F2166" t="inlineStr"/>
-      <c r="G2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2167">
-      <c r="A2167" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2167" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2167" t="inlineStr"/>
-      <c r="D2167" t="inlineStr"/>
-      <c r="E2167" t="inlineStr"/>
-      <c r="F2167" t="inlineStr"/>
-      <c r="G2167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2168">
-      <c r="A2168" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2168" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2168" t="inlineStr"/>
-      <c r="D2168" t="inlineStr"/>
-      <c r="E2168" t="inlineStr"/>
-      <c r="F2168" t="inlineStr"/>
-      <c r="G2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2169">
-      <c r="A2169" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2169" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2169" t="inlineStr"/>
-      <c r="D2169" t="inlineStr"/>
-      <c r="E2169" t="inlineStr"/>
-      <c r="F2169" t="inlineStr"/>
-      <c r="G2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2170">
-      <c r="A2170" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2170" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2170" t="inlineStr"/>
-      <c r="D2170" t="inlineStr"/>
-      <c r="E2170" t="inlineStr"/>
-      <c r="F2170" t="inlineStr"/>
-      <c r="G2170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2171">
-      <c r="A2171" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2171" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2171" t="inlineStr"/>
-      <c r="D2171" t="inlineStr"/>
-      <c r="E2171" t="inlineStr"/>
-      <c r="F2171" t="inlineStr"/>
-      <c r="G2171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2172">
-      <c r="A2172" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2172" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C2172" t="inlineStr"/>
-      <c r="D2172" t="inlineStr"/>
-      <c r="E2172" t="inlineStr"/>
-      <c r="F2172" t="inlineStr"/>
-      <c r="G2172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2173">
-      <c r="A2173" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2173" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C2173" t="inlineStr"/>
-      <c r="D2173" t="inlineStr"/>
-      <c r="E2173" t="inlineStr"/>
-      <c r="F2173" t="inlineStr"/>
-      <c r="G2173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2174">
-      <c r="A2174" t="inlineStr">
-        <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B2174" t="inlineStr"/>
-      <c r="C2174" t="inlineStr"/>
-      <c r="D2174" t="inlineStr"/>
-      <c r="E2174" t="inlineStr"/>
-      <c r="F2174" t="inlineStr"/>
-      <c r="G2174" t="inlineStr"/>
-    </row>
-    <row r="2175">
-      <c r="A2175" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2175" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2175" t="inlineStr"/>
-      <c r="D2175" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2175" t="inlineStr"/>
-      <c r="F2175" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2175" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2176">
-      <c r="A2176" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2176" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2176" t="inlineStr"/>
-      <c r="D2176" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2176" t="inlineStr"/>
-      <c r="F2176" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2177">
-      <c r="A2177" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2177" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2177" t="inlineStr"/>
-      <c r="D2177" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2177" t="inlineStr"/>
-      <c r="F2177" t="inlineStr"/>
-      <c r="G2177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2178">
-      <c r="A2178" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2178" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C2178" t="inlineStr"/>
-      <c r="D2178" t="inlineStr"/>
-      <c r="E2178" t="inlineStr"/>
-      <c r="F2178" t="inlineStr"/>
-      <c r="G2178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2179">
-      <c r="A2179" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2179" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2179" t="inlineStr"/>
-      <c r="D2179" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E2179" t="inlineStr"/>
-      <c r="F2179" t="inlineStr"/>
-      <c r="G2179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2180">
-      <c r="A2180" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2180" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2180" t="inlineStr"/>
-      <c r="D2180" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2180" t="inlineStr"/>
-      <c r="F2180" t="inlineStr"/>
-      <c r="G2180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2181">
-      <c r="A2181" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2181" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2181" t="inlineStr"/>
-      <c r="D2181" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2181" t="inlineStr"/>
-      <c r="F2181" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2182">
-      <c r="A2182" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2182" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C2182" t="inlineStr"/>
-      <c r="D2182" t="inlineStr"/>
-      <c r="E2182" t="inlineStr"/>
-      <c r="F2182" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G2182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2183">
-      <c r="A2183" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2183" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2183" t="inlineStr"/>
-      <c r="D2183" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2183" t="inlineStr"/>
-      <c r="F2183" t="inlineStr"/>
-      <c r="G2183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2184">
-      <c r="A2184" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2184" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2184" t="inlineStr"/>
-      <c r="D2184" t="inlineStr"/>
-      <c r="E2184" t="inlineStr"/>
-      <c r="F2184" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2185">
-      <c r="A2185" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2185" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C2185" t="inlineStr"/>
-      <c r="D2185" t="inlineStr"/>
-      <c r="E2185" t="inlineStr"/>
-      <c r="F2185" t="inlineStr"/>
-      <c r="G2185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2186">
-      <c r="A2186" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2186" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C2186" t="inlineStr"/>
-      <c r="D2186" t="inlineStr"/>
-      <c r="E2186" t="inlineStr"/>
-      <c r="F2186" t="inlineStr"/>
-      <c r="G2186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2187">
-      <c r="A2187" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2187" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2187" t="inlineStr"/>
-      <c r="D2187" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E2187" t="inlineStr"/>
-      <c r="F2187" t="inlineStr"/>
-      <c r="G2187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2188">
-      <c r="A2188" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2188" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C2188" t="inlineStr"/>
-      <c r="D2188" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E2188" t="inlineStr"/>
-      <c r="F2188" t="inlineStr"/>
-      <c r="G2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2189">
-      <c r="A2189" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2189" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C2189" t="inlineStr"/>
-      <c r="D2189" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E2189" t="inlineStr"/>
-      <c r="F2189" t="inlineStr"/>
-      <c r="G2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2190">
-      <c r="A2190" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2190" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C2190" t="inlineStr"/>
-      <c r="D2190" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E2190" t="inlineStr"/>
-      <c r="F2190" t="inlineStr"/>
-      <c r="G2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2191">
-      <c r="A2191" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2191" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2191" t="inlineStr"/>
-      <c r="D2191" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2191" t="inlineStr"/>
-      <c r="F2191" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2192">
-      <c r="A2192" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2192" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2192" t="inlineStr"/>
-      <c r="D2192" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2192" t="inlineStr"/>
-      <c r="F2192" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2193">
-      <c r="A2193" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2193" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2193" t="inlineStr"/>
-      <c r="D2193" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2193" t="inlineStr"/>
-      <c r="F2193" t="inlineStr"/>
-      <c r="G2193" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2194">
-      <c r="A2194" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2194" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2194" t="inlineStr"/>
-      <c r="D2194" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E2194" t="inlineStr"/>
-      <c r="F2194" t="inlineStr"/>
-      <c r="G2194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2195">
-      <c r="A2195" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2195" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2195" t="inlineStr"/>
-      <c r="D2195" t="inlineStr"/>
-      <c r="E2195" t="inlineStr"/>
-      <c r="F2195" t="inlineStr"/>
-      <c r="G2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2196">
-      <c r="A2196" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2196" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2196" t="inlineStr"/>
-      <c r="D2196" t="inlineStr"/>
-      <c r="E2196" t="inlineStr"/>
-      <c r="F2196" t="inlineStr"/>
-      <c r="G2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2197">
-      <c r="A2197" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2197" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2197" t="inlineStr"/>
-      <c r="D2197" t="inlineStr"/>
-      <c r="E2197" t="inlineStr"/>
-      <c r="F2197" t="inlineStr"/>
-      <c r="G2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2198">
-      <c r="A2198" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2198" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2198" t="inlineStr"/>
-      <c r="D2198" t="inlineStr"/>
-      <c r="E2198" t="inlineStr"/>
-      <c r="F2198" t="inlineStr"/>
-      <c r="G2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2199">
-      <c r="A2199" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2199" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2199" t="inlineStr"/>
-      <c r="D2199" t="inlineStr"/>
-      <c r="E2199" t="inlineStr"/>
-      <c r="F2199" t="inlineStr"/>
-      <c r="G2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2200">
-      <c r="A2200" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2200" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2200" t="inlineStr"/>
-      <c r="D2200" t="inlineStr"/>
-      <c r="E2200" t="inlineStr"/>
-      <c r="F2200" t="inlineStr"/>
-      <c r="G2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2201">
-      <c r="A2201" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2201" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2201" t="inlineStr"/>
-      <c r="D2201" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E2201" t="inlineStr"/>
-      <c r="F2201" t="inlineStr"/>
-      <c r="G2201" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2202">
-      <c r="A2202" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2202" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C2202" t="inlineStr"/>
-      <c r="D2202" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E2202" t="inlineStr"/>
-      <c r="F2202" t="inlineStr"/>
-      <c r="G2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2203">
-      <c r="A2203" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2203" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2203" t="inlineStr"/>
-      <c r="D2203" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E2203" t="inlineStr"/>
-      <c r="F2203" t="inlineStr"/>
-      <c r="G2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2204">
-      <c r="A2204" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2204" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C2204" t="inlineStr"/>
-      <c r="D2204" t="inlineStr"/>
-      <c r="E2204" t="inlineStr"/>
-      <c r="F2204" t="inlineStr"/>
-      <c r="G2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2205">
-      <c r="A2205" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2205" t="inlineStr"/>
-      <c r="C2205" t="inlineStr"/>
-      <c r="D2205" t="inlineStr"/>
-      <c r="E2205" t="inlineStr"/>
-      <c r="F2205" t="inlineStr"/>
-      <c r="G2205" t="inlineStr"/>
-    </row>
-    <row r="2206">
-      <c r="A2206" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2206" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2206" t="inlineStr"/>
-      <c r="D2206" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2206" t="inlineStr"/>
-      <c r="F2206" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G2206" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2207">
-      <c r="A2207" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2207" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C2207" t="inlineStr"/>
-      <c r="D2207" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2207" t="inlineStr"/>
-      <c r="F2207" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2208">
-      <c r="A2208" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2208" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2208" t="inlineStr"/>
-      <c r="D2208" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E2208" t="inlineStr"/>
-      <c r="F2208" t="inlineStr"/>
-      <c r="G2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2209">
-      <c r="A2209" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2209" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2209" t="inlineStr"/>
-      <c r="D2209" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E2209" t="inlineStr"/>
-      <c r="F2209" t="inlineStr"/>
-      <c r="G2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2210">
-      <c r="A2210" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2210" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2210" t="inlineStr"/>
-      <c r="D2210" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2210" t="inlineStr"/>
-      <c r="F2210" t="inlineStr"/>
-      <c r="G2210" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2211">
-      <c r="A2211" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2211" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2211" t="inlineStr"/>
-      <c r="D2211" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2211" t="inlineStr"/>
-      <c r="F2211" t="inlineStr"/>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2212">
-      <c r="A2212" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2212" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2212" t="inlineStr"/>
-      <c r="D2212" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2212" t="inlineStr"/>
-      <c r="F2212" t="inlineStr"/>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2213">
-      <c r="A2213" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2213" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2213" t="inlineStr"/>
-      <c r="D2213" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2213" t="inlineStr"/>
-      <c r="F2213" t="inlineStr"/>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2214">
-      <c r="A2214" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2214" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2214" t="inlineStr"/>
-      <c r="D2214" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E2214" t="inlineStr"/>
-      <c r="F2214" t="inlineStr"/>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2215">
-      <c r="A2215" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2215" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2215" t="inlineStr"/>
-      <c r="D2215" t="inlineStr"/>
-      <c r="E2215" t="inlineStr"/>
-      <c r="F2215" t="inlineStr"/>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2216">
-      <c r="A2216" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2216" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2216" t="inlineStr"/>
-      <c r="D2216" t="inlineStr"/>
-      <c r="E2216" t="inlineStr"/>
-      <c r="F2216" t="inlineStr"/>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-18.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2216"/>
+  <dimension ref="A1:G2156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54771,10 +54771,8 @@
       </c>
       <c r="E2090" t="inlineStr"/>
       <c r="F2090" t="inlineStr"/>
-      <c r="G2090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2091">
@@ -54800,10 +54798,8 @@
       </c>
       <c r="E2091" t="inlineStr"/>
       <c r="F2091" t="inlineStr"/>
-      <c r="G2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -54829,10 +54825,8 @@
       </c>
       <c r="E2092" t="inlineStr"/>
       <c r="F2092" t="inlineStr"/>
-      <c r="G2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -54858,10 +54852,8 @@
       </c>
       <c r="E2093" t="inlineStr"/>
       <c r="F2093" t="inlineStr"/>
-      <c r="G2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -54887,10 +54879,8 @@
       </c>
       <c r="E2094" t="inlineStr"/>
       <c r="F2094" t="inlineStr"/>
-      <c r="G2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -54920,10 +54910,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="G2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -54949,10 +54937,8 @@
         </is>
       </c>
       <c r="F2096" t="inlineStr"/>
-      <c r="G2096" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2096" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2097">
@@ -54978,10 +54964,8 @@
         </is>
       </c>
       <c r="F2097" t="inlineStr"/>
-      <c r="G2097" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2097" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2098">
@@ -55003,10 +54987,8 @@
       </c>
       <c r="E2098" t="inlineStr"/>
       <c r="F2098" t="inlineStr"/>
-      <c r="G2098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2099">
@@ -55028,10 +55010,8 @@
       </c>
       <c r="E2099" t="inlineStr"/>
       <c r="F2099" t="inlineStr"/>
-      <c r="G2099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2100">
@@ -55053,10 +55033,8 @@
       </c>
       <c r="E2100" t="inlineStr"/>
       <c r="F2100" t="inlineStr"/>
-      <c r="G2100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2101">
@@ -55082,10 +55060,8 @@
         </is>
       </c>
       <c r="F2101" t="inlineStr"/>
-      <c r="G2101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2102">
@@ -55107,10 +55083,8 @@
       </c>
       <c r="E2102" t="inlineStr"/>
       <c r="F2102" t="inlineStr"/>
-      <c r="G2102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2103">
@@ -55132,10 +55106,8 @@
       </c>
       <c r="E2103" t="inlineStr"/>
       <c r="F2103" t="inlineStr"/>
-      <c r="G2103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2104">
@@ -55157,10 +55129,8 @@
       </c>
       <c r="E2104" t="inlineStr"/>
       <c r="F2104" t="inlineStr"/>
-      <c r="G2104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2105">
@@ -55182,10 +55152,8 @@
         </is>
       </c>
       <c r="F2105" t="inlineStr"/>
-      <c r="G2105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2106">
@@ -55207,10 +55175,8 @@
       </c>
       <c r="E2106" t="inlineStr"/>
       <c r="F2106" t="inlineStr"/>
-      <c r="G2106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2107">
@@ -55232,10 +55198,8 @@
       </c>
       <c r="E2107" t="inlineStr"/>
       <c r="F2107" t="inlineStr"/>
-      <c r="G2107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2108">
@@ -55253,10 +55217,8 @@
       <c r="D2108" t="inlineStr"/>
       <c r="E2108" t="inlineStr"/>
       <c r="F2108" t="inlineStr"/>
-      <c r="G2108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2109">
@@ -55299,10 +55261,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2111">
@@ -55332,10 +55292,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2112">
@@ -55361,10 +55319,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2113">
@@ -55382,10 +55338,8 @@
       <c r="D2113" t="inlineStr"/>
       <c r="E2113" t="inlineStr"/>
       <c r="F2113" t="inlineStr"/>
-      <c r="G2113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2114">
@@ -55411,10 +55365,8 @@
         </is>
       </c>
       <c r="F2114" t="inlineStr"/>
-      <c r="G2114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2115">
@@ -55436,10 +55388,8 @@
       </c>
       <c r="E2115" t="inlineStr"/>
       <c r="F2115" t="inlineStr"/>
-      <c r="G2115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2116">
@@ -55461,10 +55411,8 @@
       </c>
       <c r="E2116" t="inlineStr"/>
       <c r="F2116" t="inlineStr"/>
-      <c r="G2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -55486,10 +55434,8 @@
       </c>
       <c r="E2117" t="inlineStr"/>
       <c r="F2117" t="inlineStr"/>
-      <c r="G2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -55511,10 +55457,8 @@
       </c>
       <c r="E2118" t="inlineStr"/>
       <c r="F2118" t="inlineStr"/>
-      <c r="G2118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2119">
@@ -55536,10 +55480,8 @@
       </c>
       <c r="E2119" t="inlineStr"/>
       <c r="F2119" t="inlineStr"/>
-      <c r="G2119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -55557,10 +55499,8 @@
       <c r="D2120" t="inlineStr"/>
       <c r="E2120" t="inlineStr"/>
       <c r="F2120" t="inlineStr"/>
-      <c r="G2120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2121">
@@ -55578,10 +55518,8 @@
       <c r="D2121" t="inlineStr"/>
       <c r="E2121" t="inlineStr"/>
       <c r="F2121" t="inlineStr"/>
-      <c r="G2121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2122">
@@ -55603,40 +55541,62 @@
       </c>
       <c r="E2122" t="inlineStr"/>
       <c r="F2122" t="inlineStr"/>
-      <c r="G2122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2123" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>Export Prices YoYJUN</t>
+        </is>
+      </c>
       <c r="C2123" t="inlineStr"/>
-      <c r="D2123" t="inlineStr"/>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="E2123" t="inlineStr"/>
-      <c r="F2123" t="inlineStr"/>
-      <c r="G2123" t="inlineStr"/>
+      <c r="F2123" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="G2123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2124">
       <c r="A2124" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2124" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2124" t="inlineStr"/>
-      <c r="D2124" t="inlineStr"/>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E2124" t="inlineStr"/>
-      <c r="F2124" t="inlineStr"/>
+      <c r="F2124" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2124" t="inlineStr">
         <is>
           <t>3</t>
@@ -55646,20 +55606,16 @@
     <row r="2125">
       <c r="A2125" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2125" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C2125" t="inlineStr"/>
-      <c r="D2125" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
+      <c r="D2125" t="inlineStr"/>
       <c r="E2125" t="inlineStr"/>
       <c r="F2125" t="inlineStr"/>
       <c r="G2125" t="inlineStr">
@@ -55671,18 +55627,18 @@
     <row r="2126">
       <c r="A2126" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2126" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C2126" t="inlineStr"/>
       <c r="D2126" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>18.3</t>
         </is>
       </c>
       <c r="E2126" t="inlineStr"/>
@@ -55696,77 +55652,93 @@
     <row r="2127">
       <c r="A2127" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2127" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>Philly Fed CAPEX IndexJUL</t>
         </is>
       </c>
       <c r="C2127" t="inlineStr"/>
       <c r="D2127" t="inlineStr">
         <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2127" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2127" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E2127" t="inlineStr"/>
+      <c r="F2127" t="inlineStr"/>
       <c r="G2127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="inlineStr">
         <is>
-          <t>Sunday July 13 2025</t>
-        </is>
-      </c>
-      <c r="B2128" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>Philly Fed EmploymentJUL</t>
+        </is>
+      </c>
       <c r="C2128" t="inlineStr"/>
-      <c r="D2128" t="inlineStr"/>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>-9.8</t>
+        </is>
+      </c>
       <c r="E2128" t="inlineStr"/>
       <c r="F2128" t="inlineStr"/>
-      <c r="G2128" t="inlineStr"/>
+      <c r="G2128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2129">
       <c r="A2129" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2129" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>Philly Fed New OrdersJUL</t>
+        </is>
+      </c>
       <c r="C2129" t="inlineStr"/>
-      <c r="D2129" t="inlineStr"/>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
       <c r="E2129" t="inlineStr"/>
       <c r="F2129" t="inlineStr"/>
-      <c r="G2129" t="inlineStr"/>
+      <c r="G2129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2130">
       <c r="A2130" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C2130" t="inlineStr"/>
       <c r="D2130" t="inlineStr">
         <is>
-          <t>4.255%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E2130" t="inlineStr"/>
@@ -55780,22 +55752,26 @@
     <row r="2131">
       <c r="A2131" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr"/>
       <c r="D2131" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2131" t="inlineStr"/>
-      <c r="F2131" t="inlineStr"/>
+      <c r="F2131" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2131" t="inlineStr">
         <is>
           <t>3</t>
@@ -55805,92 +55781,112 @@
     <row r="2132">
       <c r="A2132" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2132" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYJUN</t>
+        </is>
+      </c>
       <c r="C2132" t="inlineStr"/>
-      <c r="D2132" t="inlineStr"/>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E2132" t="inlineStr"/>
-      <c r="F2132" t="inlineStr"/>
-      <c r="G2132" t="inlineStr"/>
+      <c r="F2132" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="G2132" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2133">
       <c r="A2133" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2133" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2133" t="inlineStr"/>
       <c r="D2133" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2133" t="inlineStr"/>
       <c r="F2133" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2134" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2134" t="inlineStr"/>
       <c r="D2134" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E2134" t="inlineStr"/>
       <c r="F2134" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G2134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr"/>
       <c r="D2135" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2135" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E2135" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2135" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -55898,143 +55894,107 @@
       </c>
       <c r="G2135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr"/>
-      <c r="D2136" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D2136" t="inlineStr"/>
       <c r="E2136" t="inlineStr"/>
-      <c r="F2136" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="F2136" t="inlineStr"/>
       <c r="G2136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2137" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2137" t="inlineStr"/>
-      <c r="D2137" t="inlineStr">
-        <is>
-          <t>321.465</t>
-        </is>
-      </c>
+      <c r="D2137" t="inlineStr"/>
       <c r="E2137" t="inlineStr"/>
-      <c r="F2137" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
+      <c r="F2137" t="inlineStr"/>
       <c r="G2137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr"/>
-      <c r="D2138" t="inlineStr">
-        <is>
-          <t>320.580</t>
-        </is>
-      </c>
+      <c r="D2138" t="inlineStr"/>
       <c r="E2138" t="inlineStr"/>
-      <c r="F2138" t="inlineStr">
-        <is>
-          <t>321.2</t>
-        </is>
-      </c>
+      <c r="F2138" t="inlineStr"/>
       <c r="G2138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr"/>
-      <c r="D2139" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
+      <c r="D2139" t="inlineStr"/>
       <c r="E2139" t="inlineStr"/>
-      <c r="F2139" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
+      <c r="F2139" t="inlineStr"/>
       <c r="G2139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
-      <c r="D2140" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
+      <c r="D2140" t="inlineStr"/>
       <c r="E2140" t="inlineStr"/>
       <c r="F2140" t="inlineStr"/>
       <c r="G2140" t="inlineStr">
@@ -56046,184 +56006,196 @@
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
-      <c r="D2141" t="inlineStr"/>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>$-7.8B</t>
+        </is>
+      </c>
       <c r="E2141" t="inlineStr"/>
       <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2142" t="inlineStr"/>
       <c r="D2142" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2142" t="inlineStr"/>
       <c r="F2142" t="inlineStr"/>
       <c r="G2142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2143" t="inlineStr"/>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsMAY</t>
+        </is>
+      </c>
       <c r="C2143" t="inlineStr"/>
-      <c r="D2143" t="inlineStr"/>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>$-14.2B</t>
+        </is>
+      </c>
       <c r="E2143" t="inlineStr"/>
       <c r="F2143" t="inlineStr"/>
-      <c r="G2143" t="inlineStr"/>
+      <c r="G2143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2144">
       <c r="A2144" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2144" t="inlineStr"/>
-      <c r="D2144" t="inlineStr">
-        <is>
-          <t>6.77%</t>
-        </is>
-      </c>
+      <c r="D2144" t="inlineStr"/>
       <c r="E2144" t="inlineStr"/>
       <c r="F2144" t="inlineStr"/>
       <c r="G2144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2145" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr"/>
       <c r="C2145" t="inlineStr"/>
-      <c r="D2145" t="inlineStr">
-        <is>
-          <t>9.4%</t>
-        </is>
-      </c>
+      <c r="D2145" t="inlineStr"/>
       <c r="E2145" t="inlineStr"/>
       <c r="F2145" t="inlineStr"/>
-      <c r="G2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2145" t="inlineStr"/>
     </row>
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr"/>
       <c r="D2146" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2146" t="inlineStr"/>
-      <c r="F2146" t="inlineStr"/>
+      <c r="F2146" t="inlineStr">
+        <is>
+          <t>1.37M</t>
+        </is>
+      </c>
       <c r="G2146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
       <c r="D2147" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>1.256M</t>
         </is>
       </c>
       <c r="E2147" t="inlineStr"/>
-      <c r="F2147" t="inlineStr"/>
+      <c r="F2147" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G2147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2148" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2148" t="inlineStr"/>
       <c r="D2148" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E2148" t="inlineStr"/>
-      <c r="F2148" t="inlineStr"/>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G2148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -56235,77 +56207,77 @@
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2149" t="inlineStr"/>
       <c r="D2149" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E2149" t="inlineStr"/>
       <c r="F2149" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G2149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2150">
       <c r="A2150" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr"/>
       <c r="D2150" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="E2150" t="inlineStr"/>
       <c r="F2150" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="G2150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr"/>
       <c r="D2151" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E2151" t="inlineStr"/>
       <c r="F2151" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G2151" t="inlineStr">
@@ -56317,24 +56289,24 @@
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr"/>
       <c r="D2152" t="inlineStr">
         <is>
-          <t>148.072</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E2152" t="inlineStr"/>
       <c r="F2152" t="inlineStr">
         <is>
-          <t>148.9</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G2152" t="inlineStr">
@@ -56346,24 +56318,24 @@
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr"/>
       <c r="D2153" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E2153" t="inlineStr"/>
       <c r="F2153" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="G2153" t="inlineStr">
@@ -56375,24 +56347,24 @@
     <row r="2154">
       <c r="A2154" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr"/>
       <c r="D2154" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2154" t="inlineStr"/>
       <c r="F2154" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="G2154" t="inlineStr">
@@ -56404,26 +56376,18 @@
     <row r="2155">
       <c r="A2155" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2155" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2155" t="inlineStr"/>
-      <c r="D2155" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="D2155" t="inlineStr"/>
       <c r="E2155" t="inlineStr"/>
-      <c r="F2155" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F2155" t="inlineStr"/>
       <c r="G2155" t="inlineStr">
         <is>
           <t>3</t>
@@ -56433,12 +56397,12 @@
     <row r="2156">
       <c r="A2156" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2156" t="inlineStr"/>
@@ -56447,1506 +56411,6 @@
       <c r="F2156" t="inlineStr"/>
       <c r="G2156" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2157">
-      <c r="A2157" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2157" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2157" t="inlineStr"/>
-      <c r="D2157" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E2157" t="inlineStr"/>
-      <c r="F2157" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2158">
-      <c r="A2158" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2158" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJUN</t>
-        </is>
-      </c>
-      <c r="C2158" t="inlineStr"/>
-      <c r="D2158" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E2158" t="inlineStr"/>
-      <c r="F2158" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G2158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2159">
-      <c r="A2159" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2159" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2159" t="inlineStr"/>
-      <c r="D2159" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E2159" t="inlineStr"/>
-      <c r="F2159" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="G2159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2160">
-      <c r="A2160" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2160" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2160" t="inlineStr"/>
-      <c r="D2160" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2160" t="inlineStr"/>
-      <c r="F2160" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2161">
-      <c r="A2161" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2161" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2161" t="inlineStr"/>
-      <c r="D2161" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2161" t="inlineStr"/>
-      <c r="F2161" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2162">
-      <c r="A2162" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2162" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2162" t="inlineStr"/>
-      <c r="D2162" t="inlineStr"/>
-      <c r="E2162" t="inlineStr"/>
-      <c r="F2162" t="inlineStr"/>
-      <c r="G2162" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2163">
-      <c r="A2163" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2163" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2163" t="inlineStr"/>
-      <c r="D2163" t="inlineStr"/>
-      <c r="E2163" t="inlineStr"/>
-      <c r="F2163" t="inlineStr"/>
-      <c r="G2163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2164">
-      <c r="A2164" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2164" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2164" t="inlineStr"/>
-      <c r="D2164" t="inlineStr"/>
-      <c r="E2164" t="inlineStr"/>
-      <c r="F2164" t="inlineStr"/>
-      <c r="G2164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2165">
-      <c r="A2165" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2165" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2165" t="inlineStr"/>
-      <c r="D2165" t="inlineStr"/>
-      <c r="E2165" t="inlineStr"/>
-      <c r="F2165" t="inlineStr"/>
-      <c r="G2165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2166">
-      <c r="A2166" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2166" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2166" t="inlineStr"/>
-      <c r="D2166" t="inlineStr"/>
-      <c r="E2166" t="inlineStr"/>
-      <c r="F2166" t="inlineStr"/>
-      <c r="G2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2167">
-      <c r="A2167" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2167" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2167" t="inlineStr"/>
-      <c r="D2167" t="inlineStr"/>
-      <c r="E2167" t="inlineStr"/>
-      <c r="F2167" t="inlineStr"/>
-      <c r="G2167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2168">
-      <c r="A2168" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2168" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2168" t="inlineStr"/>
-      <c r="D2168" t="inlineStr"/>
-      <c r="E2168" t="inlineStr"/>
-      <c r="F2168" t="inlineStr"/>
-      <c r="G2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2169">
-      <c r="A2169" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2169" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2169" t="inlineStr"/>
-      <c r="D2169" t="inlineStr"/>
-      <c r="E2169" t="inlineStr"/>
-      <c r="F2169" t="inlineStr"/>
-      <c r="G2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2170">
-      <c r="A2170" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2170" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2170" t="inlineStr"/>
-      <c r="D2170" t="inlineStr"/>
-      <c r="E2170" t="inlineStr"/>
-      <c r="F2170" t="inlineStr"/>
-      <c r="G2170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2171">
-      <c r="A2171" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2171" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2171" t="inlineStr"/>
-      <c r="D2171" t="inlineStr"/>
-      <c r="E2171" t="inlineStr"/>
-      <c r="F2171" t="inlineStr"/>
-      <c r="G2171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2172">
-      <c r="A2172" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2172" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C2172" t="inlineStr"/>
-      <c r="D2172" t="inlineStr"/>
-      <c r="E2172" t="inlineStr"/>
-      <c r="F2172" t="inlineStr"/>
-      <c r="G2172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2173">
-      <c r="A2173" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2173" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C2173" t="inlineStr"/>
-      <c r="D2173" t="inlineStr"/>
-      <c r="E2173" t="inlineStr"/>
-      <c r="F2173" t="inlineStr"/>
-      <c r="G2173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2174">
-      <c r="A2174" t="inlineStr">
-        <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B2174" t="inlineStr"/>
-      <c r="C2174" t="inlineStr"/>
-      <c r="D2174" t="inlineStr"/>
-      <c r="E2174" t="inlineStr"/>
-      <c r="F2174" t="inlineStr"/>
-      <c r="G2174" t="inlineStr"/>
-    </row>
-    <row r="2175">
-      <c r="A2175" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2175" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2175" t="inlineStr"/>
-      <c r="D2175" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2175" t="inlineStr"/>
-      <c r="F2175" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2175" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2176">
-      <c r="A2176" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2176" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2176" t="inlineStr"/>
-      <c r="D2176" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2176" t="inlineStr"/>
-      <c r="F2176" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2177">
-      <c r="A2177" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2177" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2177" t="inlineStr"/>
-      <c r="D2177" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2177" t="inlineStr"/>
-      <c r="F2177" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2178">
-      <c r="A2178" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2178" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C2178" t="inlineStr"/>
-      <c r="D2178" t="inlineStr"/>
-      <c r="E2178" t="inlineStr"/>
-      <c r="F2178" t="inlineStr"/>
-      <c r="G2178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2179">
-      <c r="A2179" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2179" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2179" t="inlineStr"/>
-      <c r="D2179" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E2179" t="inlineStr"/>
-      <c r="F2179" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G2179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2180">
-      <c r="A2180" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2180" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2180" t="inlineStr"/>
-      <c r="D2180" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2180" t="inlineStr"/>
-      <c r="F2180" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2181">
-      <c r="A2181" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2181" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2181" t="inlineStr"/>
-      <c r="D2181" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2181" t="inlineStr"/>
-      <c r="F2181" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2182">
-      <c r="A2182" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2182" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C2182" t="inlineStr"/>
-      <c r="D2182" t="inlineStr"/>
-      <c r="E2182" t="inlineStr"/>
-      <c r="F2182" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G2182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2183">
-      <c r="A2183" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2183" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2183" t="inlineStr"/>
-      <c r="D2183" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2183" t="inlineStr"/>
-      <c r="F2183" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G2183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2184">
-      <c r="A2184" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2184" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2184" t="inlineStr"/>
-      <c r="D2184" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2184" t="inlineStr"/>
-      <c r="F2184" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2185">
-      <c r="A2185" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2185" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C2185" t="inlineStr"/>
-      <c r="D2185" t="inlineStr"/>
-      <c r="E2185" t="inlineStr"/>
-      <c r="F2185" t="inlineStr"/>
-      <c r="G2185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2186">
-      <c r="A2186" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2186" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C2186" t="inlineStr"/>
-      <c r="D2186" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E2186" t="inlineStr"/>
-      <c r="F2186" t="inlineStr"/>
-      <c r="G2186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2187">
-      <c r="A2187" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2187" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2187" t="inlineStr"/>
-      <c r="D2187" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E2187" t="inlineStr"/>
-      <c r="F2187" t="inlineStr"/>
-      <c r="G2187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2188">
-      <c r="A2188" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2188" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C2188" t="inlineStr"/>
-      <c r="D2188" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E2188" t="inlineStr"/>
-      <c r="F2188" t="inlineStr"/>
-      <c r="G2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2189">
-      <c r="A2189" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2189" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C2189" t="inlineStr"/>
-      <c r="D2189" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E2189" t="inlineStr"/>
-      <c r="F2189" t="inlineStr"/>
-      <c r="G2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2190">
-      <c r="A2190" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2190" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C2190" t="inlineStr"/>
-      <c r="D2190" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E2190" t="inlineStr"/>
-      <c r="F2190" t="inlineStr"/>
-      <c r="G2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2191">
-      <c r="A2191" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2191" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2191" t="inlineStr"/>
-      <c r="D2191" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2191" t="inlineStr"/>
-      <c r="F2191" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2192">
-      <c r="A2192" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2192" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2192" t="inlineStr"/>
-      <c r="D2192" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2192" t="inlineStr"/>
-      <c r="F2192" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2193">
-      <c r="A2193" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2193" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2193" t="inlineStr"/>
-      <c r="D2193" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2193" t="inlineStr"/>
-      <c r="F2193" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2193" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2194">
-      <c r="A2194" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2194" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2194" t="inlineStr"/>
-      <c r="D2194" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E2194" t="inlineStr"/>
-      <c r="F2194" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G2194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2195">
-      <c r="A2195" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2195" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2195" t="inlineStr"/>
-      <c r="D2195" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2195" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2195" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2196">
-      <c r="A2196" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2196" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2196" t="inlineStr"/>
-      <c r="D2196" t="inlineStr"/>
-      <c r="E2196" t="inlineStr"/>
-      <c r="F2196" t="inlineStr"/>
-      <c r="G2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2197">
-      <c r="A2197" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2197" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2197" t="inlineStr"/>
-      <c r="D2197" t="inlineStr"/>
-      <c r="E2197" t="inlineStr"/>
-      <c r="F2197" t="inlineStr"/>
-      <c r="G2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2198">
-      <c r="A2198" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2198" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2198" t="inlineStr"/>
-      <c r="D2198" t="inlineStr"/>
-      <c r="E2198" t="inlineStr"/>
-      <c r="F2198" t="inlineStr"/>
-      <c r="G2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2199">
-      <c r="A2199" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2199" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2199" t="inlineStr"/>
-      <c r="D2199" t="inlineStr"/>
-      <c r="E2199" t="inlineStr"/>
-      <c r="F2199" t="inlineStr"/>
-      <c r="G2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2200">
-      <c r="A2200" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2200" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2200" t="inlineStr"/>
-      <c r="D2200" t="inlineStr"/>
-      <c r="E2200" t="inlineStr"/>
-      <c r="F2200" t="inlineStr"/>
-      <c r="G2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2201">
-      <c r="A2201" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2201" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2201" t="inlineStr"/>
-      <c r="D2201" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E2201" t="inlineStr"/>
-      <c r="F2201" t="inlineStr"/>
-      <c r="G2201" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2202">
-      <c r="A2202" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2202" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C2202" t="inlineStr"/>
-      <c r="D2202" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E2202" t="inlineStr"/>
-      <c r="F2202" t="inlineStr"/>
-      <c r="G2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2203">
-      <c r="A2203" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2203" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2203" t="inlineStr"/>
-      <c r="D2203" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E2203" t="inlineStr"/>
-      <c r="F2203" t="inlineStr"/>
-      <c r="G2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2204">
-      <c r="A2204" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2204" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C2204" t="inlineStr"/>
-      <c r="D2204" t="inlineStr"/>
-      <c r="E2204" t="inlineStr"/>
-      <c r="F2204" t="inlineStr"/>
-      <c r="G2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2205">
-      <c r="A2205" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2205" t="inlineStr"/>
-      <c r="C2205" t="inlineStr"/>
-      <c r="D2205" t="inlineStr"/>
-      <c r="E2205" t="inlineStr"/>
-      <c r="F2205" t="inlineStr"/>
-      <c r="G2205" t="inlineStr"/>
-    </row>
-    <row r="2206">
-      <c r="A2206" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2206" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2206" t="inlineStr"/>
-      <c r="D2206" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2206" t="inlineStr"/>
-      <c r="F2206" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G2206" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2207">
-      <c r="A2207" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2207" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C2207" t="inlineStr"/>
-      <c r="D2207" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2207" t="inlineStr"/>
-      <c r="F2207" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2208">
-      <c r="A2208" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2208" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2208" t="inlineStr"/>
-      <c r="D2208" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E2208" t="inlineStr"/>
-      <c r="F2208" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2209">
-      <c r="A2209" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2209" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2209" t="inlineStr"/>
-      <c r="D2209" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E2209" t="inlineStr"/>
-      <c r="F2209" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2210">
-      <c r="A2210" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2210" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2210" t="inlineStr"/>
-      <c r="D2210" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2210" t="inlineStr"/>
-      <c r="F2210" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G2210" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2211">
-      <c r="A2211" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2211" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2211" t="inlineStr"/>
-      <c r="D2211" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2211" t="inlineStr"/>
-      <c r="F2211" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2212">
-      <c r="A2212" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2212" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2212" t="inlineStr"/>
-      <c r="D2212" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2212" t="inlineStr"/>
-      <c r="F2212" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2213">
-      <c r="A2213" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2213" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2213" t="inlineStr"/>
-      <c r="D2213" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2213" t="inlineStr"/>
-      <c r="F2213" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2214">
-      <c r="A2214" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2214" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2214" t="inlineStr"/>
-      <c r="D2214" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E2214" t="inlineStr"/>
-      <c r="F2214" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2215">
-      <c r="A2215" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2215" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2215" t="inlineStr"/>
-      <c r="D2215" t="inlineStr"/>
-      <c r="E2215" t="inlineStr"/>
-      <c r="F2215" t="inlineStr"/>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2216">
-      <c r="A2216" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2216" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2216" t="inlineStr"/>
-      <c r="D2216" t="inlineStr"/>
-      <c r="E2216" t="inlineStr"/>
-      <c r="F2216" t="inlineStr"/>
-      <c r="G2216" t="inlineStr">
-        <is>
           <t>3</t>
         </is>
       </c>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-18.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2216"/>
+  <dimension ref="A1:G2156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54771,10 +54771,8 @@
       </c>
       <c r="E2090" t="inlineStr"/>
       <c r="F2090" t="inlineStr"/>
-      <c r="G2090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2091">
@@ -54800,10 +54798,8 @@
       </c>
       <c r="E2091" t="inlineStr"/>
       <c r="F2091" t="inlineStr"/>
-      <c r="G2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -54829,10 +54825,8 @@
       </c>
       <c r="E2092" t="inlineStr"/>
       <c r="F2092" t="inlineStr"/>
-      <c r="G2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -54858,10 +54852,8 @@
       </c>
       <c r="E2093" t="inlineStr"/>
       <c r="F2093" t="inlineStr"/>
-      <c r="G2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -54887,10 +54879,8 @@
       </c>
       <c r="E2094" t="inlineStr"/>
       <c r="F2094" t="inlineStr"/>
-      <c r="G2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -54924,10 +54914,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="G2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -54957,10 +54945,8 @@
         </is>
       </c>
       <c r="F2096" t="inlineStr"/>
-      <c r="G2096" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2096" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2097">
@@ -54990,10 +54976,8 @@
         </is>
       </c>
       <c r="F2097" t="inlineStr"/>
-      <c r="G2097" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2097" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2098">
@@ -55019,10 +55003,8 @@
       </c>
       <c r="E2098" t="inlineStr"/>
       <c r="F2098" t="inlineStr"/>
-      <c r="G2098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2099">
@@ -55048,10 +55030,8 @@
       </c>
       <c r="E2099" t="inlineStr"/>
       <c r="F2099" t="inlineStr"/>
-      <c r="G2099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2100">
@@ -55077,10 +55057,8 @@
       </c>
       <c r="E2100" t="inlineStr"/>
       <c r="F2100" t="inlineStr"/>
-      <c r="G2100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2101">
@@ -55110,10 +55088,8 @@
         </is>
       </c>
       <c r="F2101" t="inlineStr"/>
-      <c r="G2101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2102">
@@ -55139,10 +55115,8 @@
       </c>
       <c r="E2102" t="inlineStr"/>
       <c r="F2102" t="inlineStr"/>
-      <c r="G2102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2103">
@@ -55168,10 +55142,8 @@
       </c>
       <c r="E2103" t="inlineStr"/>
       <c r="F2103" t="inlineStr"/>
-      <c r="G2103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2104">
@@ -55197,10 +55169,8 @@
       </c>
       <c r="E2104" t="inlineStr"/>
       <c r="F2104" t="inlineStr"/>
-      <c r="G2104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2105">
@@ -55222,10 +55192,8 @@
         </is>
       </c>
       <c r="F2105" t="inlineStr"/>
-      <c r="G2105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2106">
@@ -55251,10 +55219,8 @@
       </c>
       <c r="E2106" t="inlineStr"/>
       <c r="F2106" t="inlineStr"/>
-      <c r="G2106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2107">
@@ -55280,10 +55246,8 @@
       </c>
       <c r="E2107" t="inlineStr"/>
       <c r="F2107" t="inlineStr"/>
-      <c r="G2107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2108">
@@ -55301,10 +55265,8 @@
       <c r="D2108" t="inlineStr"/>
       <c r="E2108" t="inlineStr"/>
       <c r="F2108" t="inlineStr"/>
-      <c r="G2108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2109">
@@ -55347,10 +55309,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2111">
@@ -55380,10 +55340,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2112">
@@ -55409,10 +55367,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2113">
@@ -55430,10 +55386,8 @@
       <c r="D2113" t="inlineStr"/>
       <c r="E2113" t="inlineStr"/>
       <c r="F2113" t="inlineStr"/>
-      <c r="G2113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2114">
@@ -55459,10 +55413,8 @@
         </is>
       </c>
       <c r="F2114" t="inlineStr"/>
-      <c r="G2114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2115">
@@ -55484,10 +55436,8 @@
       </c>
       <c r="E2115" t="inlineStr"/>
       <c r="F2115" t="inlineStr"/>
-      <c r="G2115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2116">
@@ -55509,10 +55459,8 @@
       </c>
       <c r="E2116" t="inlineStr"/>
       <c r="F2116" t="inlineStr"/>
-      <c r="G2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -55534,10 +55482,8 @@
       </c>
       <c r="E2117" t="inlineStr"/>
       <c r="F2117" t="inlineStr"/>
-      <c r="G2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -55559,10 +55505,8 @@
       </c>
       <c r="E2118" t="inlineStr"/>
       <c r="F2118" t="inlineStr"/>
-      <c r="G2118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2119">
@@ -55584,10 +55528,8 @@
       </c>
       <c r="E2119" t="inlineStr"/>
       <c r="F2119" t="inlineStr"/>
-      <c r="G2119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -55605,10 +55547,8 @@
       <c r="D2120" t="inlineStr"/>
       <c r="E2120" t="inlineStr"/>
       <c r="F2120" t="inlineStr"/>
-      <c r="G2120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2121">
@@ -55626,10 +55566,8 @@
       <c r="D2121" t="inlineStr"/>
       <c r="E2121" t="inlineStr"/>
       <c r="F2121" t="inlineStr"/>
-      <c r="G2121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2122">
@@ -55651,40 +55589,62 @@
       </c>
       <c r="E2122" t="inlineStr"/>
       <c r="F2122" t="inlineStr"/>
-      <c r="G2122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2123" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>Export Prices YoYJUN</t>
+        </is>
+      </c>
       <c r="C2123" t="inlineStr"/>
-      <c r="D2123" t="inlineStr"/>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="E2123" t="inlineStr"/>
-      <c r="F2123" t="inlineStr"/>
-      <c r="G2123" t="inlineStr"/>
+      <c r="F2123" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="G2123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2124">
       <c r="A2124" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2124" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2124" t="inlineStr"/>
-      <c r="D2124" t="inlineStr"/>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E2124" t="inlineStr"/>
-      <c r="F2124" t="inlineStr"/>
+      <c r="F2124" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2124" t="inlineStr">
         <is>
           <t>3</t>
@@ -55694,20 +55654,16 @@
     <row r="2125">
       <c r="A2125" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2125" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C2125" t="inlineStr"/>
-      <c r="D2125" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
+      <c r="D2125" t="inlineStr"/>
       <c r="E2125" t="inlineStr"/>
       <c r="F2125" t="inlineStr"/>
       <c r="G2125" t="inlineStr">
@@ -55719,18 +55675,18 @@
     <row r="2126">
       <c r="A2126" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2126" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C2126" t="inlineStr"/>
       <c r="D2126" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>18.3</t>
         </is>
       </c>
       <c r="E2126" t="inlineStr"/>
@@ -55744,77 +55700,93 @@
     <row r="2127">
       <c r="A2127" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2127" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>Philly Fed CAPEX IndexJUL</t>
         </is>
       </c>
       <c r="C2127" t="inlineStr"/>
       <c r="D2127" t="inlineStr">
         <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2127" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2127" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E2127" t="inlineStr"/>
+      <c r="F2127" t="inlineStr"/>
       <c r="G2127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="inlineStr">
         <is>
-          <t>Sunday July 13 2025</t>
-        </is>
-      </c>
-      <c r="B2128" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>Philly Fed EmploymentJUL</t>
+        </is>
+      </c>
       <c r="C2128" t="inlineStr"/>
-      <c r="D2128" t="inlineStr"/>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>-9.8</t>
+        </is>
+      </c>
       <c r="E2128" t="inlineStr"/>
       <c r="F2128" t="inlineStr"/>
-      <c r="G2128" t="inlineStr"/>
+      <c r="G2128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2129">
       <c r="A2129" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2129" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>Philly Fed New OrdersJUL</t>
+        </is>
+      </c>
       <c r="C2129" t="inlineStr"/>
-      <c r="D2129" t="inlineStr"/>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
       <c r="E2129" t="inlineStr"/>
       <c r="F2129" t="inlineStr"/>
-      <c r="G2129" t="inlineStr"/>
+      <c r="G2129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2130">
       <c r="A2130" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C2130" t="inlineStr"/>
       <c r="D2130" t="inlineStr">
         <is>
-          <t>4.255%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E2130" t="inlineStr"/>
@@ -55828,22 +55800,26 @@
     <row r="2131">
       <c r="A2131" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr"/>
       <c r="D2131" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2131" t="inlineStr"/>
-      <c r="F2131" t="inlineStr"/>
+      <c r="F2131" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2131" t="inlineStr">
         <is>
           <t>3</t>
@@ -55853,92 +55829,112 @@
     <row r="2132">
       <c r="A2132" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2132" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYJUN</t>
+        </is>
+      </c>
       <c r="C2132" t="inlineStr"/>
-      <c r="D2132" t="inlineStr"/>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E2132" t="inlineStr"/>
-      <c r="F2132" t="inlineStr"/>
-      <c r="G2132" t="inlineStr"/>
+      <c r="F2132" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="G2132" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2133">
       <c r="A2133" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2133" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2133" t="inlineStr"/>
       <c r="D2133" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2133" t="inlineStr"/>
       <c r="F2133" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2134" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2134" t="inlineStr"/>
       <c r="D2134" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E2134" t="inlineStr"/>
       <c r="F2134" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G2134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr"/>
       <c r="D2135" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2135" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E2135" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2135" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -55946,143 +55942,107 @@
       </c>
       <c r="G2135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr"/>
-      <c r="D2136" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D2136" t="inlineStr"/>
       <c r="E2136" t="inlineStr"/>
-      <c r="F2136" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="F2136" t="inlineStr"/>
       <c r="G2136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2137" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2137" t="inlineStr"/>
-      <c r="D2137" t="inlineStr">
-        <is>
-          <t>321.465</t>
-        </is>
-      </c>
+      <c r="D2137" t="inlineStr"/>
       <c r="E2137" t="inlineStr"/>
-      <c r="F2137" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
+      <c r="F2137" t="inlineStr"/>
       <c r="G2137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr"/>
-      <c r="D2138" t="inlineStr">
-        <is>
-          <t>320.580</t>
-        </is>
-      </c>
+      <c r="D2138" t="inlineStr"/>
       <c r="E2138" t="inlineStr"/>
-      <c r="F2138" t="inlineStr">
-        <is>
-          <t>321.2</t>
-        </is>
-      </c>
+      <c r="F2138" t="inlineStr"/>
       <c r="G2138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr"/>
-      <c r="D2139" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
+      <c r="D2139" t="inlineStr"/>
       <c r="E2139" t="inlineStr"/>
-      <c r="F2139" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
+      <c r="F2139" t="inlineStr"/>
       <c r="G2139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
-      <c r="D2140" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
+      <c r="D2140" t="inlineStr"/>
       <c r="E2140" t="inlineStr"/>
       <c r="F2140" t="inlineStr"/>
       <c r="G2140" t="inlineStr">
@@ -56094,184 +56054,196 @@
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
-      <c r="D2141" t="inlineStr"/>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>$-7.8B</t>
+        </is>
+      </c>
       <c r="E2141" t="inlineStr"/>
       <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2142" t="inlineStr"/>
       <c r="D2142" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2142" t="inlineStr"/>
       <c r="F2142" t="inlineStr"/>
       <c r="G2142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2143" t="inlineStr"/>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsMAY</t>
+        </is>
+      </c>
       <c r="C2143" t="inlineStr"/>
-      <c r="D2143" t="inlineStr"/>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>$-14.2B</t>
+        </is>
+      </c>
       <c r="E2143" t="inlineStr"/>
       <c r="F2143" t="inlineStr"/>
-      <c r="G2143" t="inlineStr"/>
+      <c r="G2143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2144">
       <c r="A2144" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2144" t="inlineStr"/>
-      <c r="D2144" t="inlineStr">
-        <is>
-          <t>6.77%</t>
-        </is>
-      </c>
+      <c r="D2144" t="inlineStr"/>
       <c r="E2144" t="inlineStr"/>
       <c r="F2144" t="inlineStr"/>
       <c r="G2144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2145" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr"/>
       <c r="C2145" t="inlineStr"/>
-      <c r="D2145" t="inlineStr">
-        <is>
-          <t>9.4%</t>
-        </is>
-      </c>
+      <c r="D2145" t="inlineStr"/>
       <c r="E2145" t="inlineStr"/>
       <c r="F2145" t="inlineStr"/>
-      <c r="G2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2145" t="inlineStr"/>
     </row>
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr"/>
       <c r="D2146" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2146" t="inlineStr"/>
-      <c r="F2146" t="inlineStr"/>
+      <c r="F2146" t="inlineStr">
+        <is>
+          <t>1.37M</t>
+        </is>
+      </c>
       <c r="G2146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
       <c r="D2147" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>1.256M</t>
         </is>
       </c>
       <c r="E2147" t="inlineStr"/>
-      <c r="F2147" t="inlineStr"/>
+      <c r="F2147" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G2147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2148" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2148" t="inlineStr"/>
       <c r="D2148" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E2148" t="inlineStr"/>
-      <c r="F2148" t="inlineStr"/>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G2148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -56283,77 +56255,77 @@
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2149" t="inlineStr"/>
       <c r="D2149" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E2149" t="inlineStr"/>
       <c r="F2149" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G2149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2150">
       <c r="A2150" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr"/>
       <c r="D2150" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="E2150" t="inlineStr"/>
       <c r="F2150" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="G2150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr"/>
       <c r="D2151" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E2151" t="inlineStr"/>
       <c r="F2151" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G2151" t="inlineStr">
@@ -56365,24 +56337,24 @@
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr"/>
       <c r="D2152" t="inlineStr">
         <is>
-          <t>148.072</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E2152" t="inlineStr"/>
       <c r="F2152" t="inlineStr">
         <is>
-          <t>148.9</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G2152" t="inlineStr">
@@ -56394,24 +56366,24 @@
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr"/>
       <c r="D2153" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E2153" t="inlineStr"/>
       <c r="F2153" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="G2153" t="inlineStr">
@@ -56423,24 +56395,24 @@
     <row r="2154">
       <c r="A2154" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr"/>
       <c r="D2154" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2154" t="inlineStr"/>
       <c r="F2154" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="G2154" t="inlineStr">
@@ -56452,26 +56424,18 @@
     <row r="2155">
       <c r="A2155" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2155" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2155" t="inlineStr"/>
-      <c r="D2155" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="D2155" t="inlineStr"/>
       <c r="E2155" t="inlineStr"/>
-      <c r="F2155" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F2155" t="inlineStr"/>
       <c r="G2155" t="inlineStr">
         <is>
           <t>3</t>
@@ -56481,12 +56445,12 @@
     <row r="2156">
       <c r="A2156" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2156" t="inlineStr"/>
@@ -56495,1542 +56459,6 @@
       <c r="F2156" t="inlineStr"/>
       <c r="G2156" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2157">
-      <c r="A2157" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2157" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2157" t="inlineStr"/>
-      <c r="D2157" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E2157" t="inlineStr"/>
-      <c r="F2157" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2158">
-      <c r="A2158" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2158" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJUN</t>
-        </is>
-      </c>
-      <c r="C2158" t="inlineStr"/>
-      <c r="D2158" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E2158" t="inlineStr"/>
-      <c r="F2158" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G2158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2159">
-      <c r="A2159" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2159" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2159" t="inlineStr"/>
-      <c r="D2159" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E2159" t="inlineStr"/>
-      <c r="F2159" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="G2159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2160">
-      <c r="A2160" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2160" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2160" t="inlineStr"/>
-      <c r="D2160" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2160" t="inlineStr"/>
-      <c r="F2160" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2161">
-      <c r="A2161" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2161" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2161" t="inlineStr"/>
-      <c r="D2161" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2161" t="inlineStr"/>
-      <c r="F2161" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2162">
-      <c r="A2162" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2162" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2162" t="inlineStr"/>
-      <c r="D2162" t="inlineStr">
-        <is>
-          <t>7.07M</t>
-        </is>
-      </c>
-      <c r="E2162" t="inlineStr"/>
-      <c r="F2162" t="inlineStr"/>
-      <c r="G2162" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2163">
-      <c r="A2163" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2163" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2163" t="inlineStr"/>
-      <c r="D2163" t="inlineStr">
-        <is>
-          <t>-2.658M</t>
-        </is>
-      </c>
-      <c r="E2163" t="inlineStr"/>
-      <c r="F2163" t="inlineStr"/>
-      <c r="G2163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2164">
-      <c r="A2164" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2164" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2164" t="inlineStr"/>
-      <c r="D2164" t="inlineStr">
-        <is>
-          <t>-1.358M</t>
-        </is>
-      </c>
-      <c r="E2164" t="inlineStr"/>
-      <c r="F2164" t="inlineStr"/>
-      <c r="G2164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2165">
-      <c r="A2165" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2165" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2165" t="inlineStr"/>
-      <c r="D2165" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E2165" t="inlineStr"/>
-      <c r="F2165" t="inlineStr"/>
-      <c r="G2165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2166">
-      <c r="A2166" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2166" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2166" t="inlineStr"/>
-      <c r="D2166" t="inlineStr">
-        <is>
-          <t>0.059M</t>
-        </is>
-      </c>
-      <c r="E2166" t="inlineStr"/>
-      <c r="F2166" t="inlineStr"/>
-      <c r="G2166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2167">
-      <c r="A2167" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2167" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2167" t="inlineStr"/>
-      <c r="D2167" t="inlineStr">
-        <is>
-          <t>-0.825M</t>
-        </is>
-      </c>
-      <c r="E2167" t="inlineStr"/>
-      <c r="F2167" t="inlineStr"/>
-      <c r="G2167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2168">
-      <c r="A2168" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2168" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2168" t="inlineStr"/>
-      <c r="D2168" t="inlineStr">
-        <is>
-          <t>0.278M</t>
-        </is>
-      </c>
-      <c r="E2168" t="inlineStr"/>
-      <c r="F2168" t="inlineStr"/>
-      <c r="G2168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2169">
-      <c r="A2169" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2169" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2169" t="inlineStr"/>
-      <c r="D2169" t="inlineStr">
-        <is>
-          <t>0.603M</t>
-        </is>
-      </c>
-      <c r="E2169" t="inlineStr"/>
-      <c r="F2169" t="inlineStr"/>
-      <c r="G2169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2170">
-      <c r="A2170" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2170" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2170" t="inlineStr"/>
-      <c r="D2170" t="inlineStr">
-        <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
-      <c r="E2170" t="inlineStr"/>
-      <c r="F2170" t="inlineStr"/>
-      <c r="G2170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2171">
-      <c r="A2171" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2171" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2171" t="inlineStr"/>
-      <c r="D2171" t="inlineStr"/>
-      <c r="E2171" t="inlineStr"/>
-      <c r="F2171" t="inlineStr"/>
-      <c r="G2171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2172">
-      <c r="A2172" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2172" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C2172" t="inlineStr"/>
-      <c r="D2172" t="inlineStr"/>
-      <c r="E2172" t="inlineStr"/>
-      <c r="F2172" t="inlineStr"/>
-      <c r="G2172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2173">
-      <c r="A2173" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2173" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C2173" t="inlineStr"/>
-      <c r="D2173" t="inlineStr"/>
-      <c r="E2173" t="inlineStr"/>
-      <c r="F2173" t="inlineStr"/>
-      <c r="G2173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2174">
-      <c r="A2174" t="inlineStr">
-        <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B2174" t="inlineStr"/>
-      <c r="C2174" t="inlineStr"/>
-      <c r="D2174" t="inlineStr"/>
-      <c r="E2174" t="inlineStr"/>
-      <c r="F2174" t="inlineStr"/>
-      <c r="G2174" t="inlineStr"/>
-    </row>
-    <row r="2175">
-      <c r="A2175" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2175" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2175" t="inlineStr"/>
-      <c r="D2175" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2175" t="inlineStr"/>
-      <c r="F2175" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2175" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2176">
-      <c r="A2176" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2176" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2176" t="inlineStr"/>
-      <c r="D2176" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2176" t="inlineStr"/>
-      <c r="F2176" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2177">
-      <c r="A2177" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2177" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2177" t="inlineStr"/>
-      <c r="D2177" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2177" t="inlineStr"/>
-      <c r="F2177" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2178">
-      <c r="A2178" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2178" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C2178" t="inlineStr"/>
-      <c r="D2178" t="inlineStr"/>
-      <c r="E2178" t="inlineStr"/>
-      <c r="F2178" t="inlineStr"/>
-      <c r="G2178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2179">
-      <c r="A2179" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2179" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2179" t="inlineStr"/>
-      <c r="D2179" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E2179" t="inlineStr"/>
-      <c r="F2179" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G2179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2180">
-      <c r="A2180" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2180" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2180" t="inlineStr"/>
-      <c r="D2180" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2180" t="inlineStr"/>
-      <c r="F2180" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2181">
-      <c r="A2181" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2181" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2181" t="inlineStr"/>
-      <c r="D2181" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2181" t="inlineStr"/>
-      <c r="F2181" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2182">
-      <c r="A2182" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2182" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C2182" t="inlineStr"/>
-      <c r="D2182" t="inlineStr"/>
-      <c r="E2182" t="inlineStr"/>
-      <c r="F2182" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G2182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2183">
-      <c r="A2183" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2183" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2183" t="inlineStr"/>
-      <c r="D2183" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2183" t="inlineStr"/>
-      <c r="F2183" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G2183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2184">
-      <c r="A2184" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2184" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2184" t="inlineStr"/>
-      <c r="D2184" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2184" t="inlineStr"/>
-      <c r="F2184" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2185">
-      <c r="A2185" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2185" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C2185" t="inlineStr"/>
-      <c r="D2185" t="inlineStr"/>
-      <c r="E2185" t="inlineStr"/>
-      <c r="F2185" t="inlineStr"/>
-      <c r="G2185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2186">
-      <c r="A2186" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2186" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C2186" t="inlineStr"/>
-      <c r="D2186" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E2186" t="inlineStr"/>
-      <c r="F2186" t="inlineStr"/>
-      <c r="G2186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2187">
-      <c r="A2187" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2187" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2187" t="inlineStr"/>
-      <c r="D2187" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E2187" t="inlineStr"/>
-      <c r="F2187" t="inlineStr"/>
-      <c r="G2187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2188">
-      <c r="A2188" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2188" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C2188" t="inlineStr"/>
-      <c r="D2188" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E2188" t="inlineStr"/>
-      <c r="F2188" t="inlineStr"/>
-      <c r="G2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2189">
-      <c r="A2189" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2189" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C2189" t="inlineStr"/>
-      <c r="D2189" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E2189" t="inlineStr"/>
-      <c r="F2189" t="inlineStr"/>
-      <c r="G2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2190">
-      <c r="A2190" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2190" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C2190" t="inlineStr"/>
-      <c r="D2190" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E2190" t="inlineStr"/>
-      <c r="F2190" t="inlineStr"/>
-      <c r="G2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2191">
-      <c r="A2191" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2191" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2191" t="inlineStr"/>
-      <c r="D2191" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2191" t="inlineStr"/>
-      <c r="F2191" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2192">
-      <c r="A2192" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2192" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C2192" t="inlineStr"/>
-      <c r="D2192" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2192" t="inlineStr"/>
-      <c r="F2192" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2193">
-      <c r="A2193" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2193" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2193" t="inlineStr"/>
-      <c r="D2193" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2193" t="inlineStr"/>
-      <c r="F2193" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2193" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2194">
-      <c r="A2194" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2194" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2194" t="inlineStr"/>
-      <c r="D2194" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E2194" t="inlineStr"/>
-      <c r="F2194" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G2194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2195">
-      <c r="A2195" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2195" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2195" t="inlineStr"/>
-      <c r="D2195" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2195" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2195" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2196">
-      <c r="A2196" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2196" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C2196" t="inlineStr"/>
-      <c r="D2196" t="inlineStr"/>
-      <c r="E2196" t="inlineStr"/>
-      <c r="F2196" t="inlineStr"/>
-      <c r="G2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2197">
-      <c r="A2197" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2197" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2197" t="inlineStr"/>
-      <c r="D2197" t="inlineStr"/>
-      <c r="E2197" t="inlineStr"/>
-      <c r="F2197" t="inlineStr"/>
-      <c r="G2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2198">
-      <c r="A2198" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2198" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2198" t="inlineStr"/>
-      <c r="D2198" t="inlineStr"/>
-      <c r="E2198" t="inlineStr"/>
-      <c r="F2198" t="inlineStr"/>
-      <c r="G2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2199">
-      <c r="A2199" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2199" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2199" t="inlineStr"/>
-      <c r="D2199" t="inlineStr"/>
-      <c r="E2199" t="inlineStr"/>
-      <c r="F2199" t="inlineStr"/>
-      <c r="G2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2200">
-      <c r="A2200" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2200" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C2200" t="inlineStr"/>
-      <c r="D2200" t="inlineStr"/>
-      <c r="E2200" t="inlineStr"/>
-      <c r="F2200" t="inlineStr"/>
-      <c r="G2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2201">
-      <c r="A2201" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2201" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2201" t="inlineStr"/>
-      <c r="D2201" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E2201" t="inlineStr"/>
-      <c r="F2201" t="inlineStr"/>
-      <c r="G2201" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2202">
-      <c r="A2202" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2202" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C2202" t="inlineStr"/>
-      <c r="D2202" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E2202" t="inlineStr"/>
-      <c r="F2202" t="inlineStr"/>
-      <c r="G2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2203">
-      <c r="A2203" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2203" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C2203" t="inlineStr"/>
-      <c r="D2203" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E2203" t="inlineStr"/>
-      <c r="F2203" t="inlineStr"/>
-      <c r="G2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2204">
-      <c r="A2204" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2204" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C2204" t="inlineStr"/>
-      <c r="D2204" t="inlineStr"/>
-      <c r="E2204" t="inlineStr"/>
-      <c r="F2204" t="inlineStr"/>
-      <c r="G2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2205">
-      <c r="A2205" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2205" t="inlineStr"/>
-      <c r="C2205" t="inlineStr"/>
-      <c r="D2205" t="inlineStr"/>
-      <c r="E2205" t="inlineStr"/>
-      <c r="F2205" t="inlineStr"/>
-      <c r="G2205" t="inlineStr"/>
-    </row>
-    <row r="2206">
-      <c r="A2206" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2206" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2206" t="inlineStr"/>
-      <c r="D2206" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2206" t="inlineStr"/>
-      <c r="F2206" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G2206" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2207">
-      <c r="A2207" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2207" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C2207" t="inlineStr"/>
-      <c r="D2207" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2207" t="inlineStr"/>
-      <c r="F2207" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2208">
-      <c r="A2208" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2208" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2208" t="inlineStr"/>
-      <c r="D2208" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E2208" t="inlineStr"/>
-      <c r="F2208" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2209">
-      <c r="A2209" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2209" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2209" t="inlineStr"/>
-      <c r="D2209" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E2209" t="inlineStr"/>
-      <c r="F2209" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2210">
-      <c r="A2210" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2210" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2210" t="inlineStr"/>
-      <c r="D2210" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2210" t="inlineStr"/>
-      <c r="F2210" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G2210" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2211">
-      <c r="A2211" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2211" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2211" t="inlineStr"/>
-      <c r="D2211" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2211" t="inlineStr"/>
-      <c r="F2211" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2212">
-      <c r="A2212" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2212" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2212" t="inlineStr"/>
-      <c r="D2212" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2212" t="inlineStr"/>
-      <c r="F2212" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2213">
-      <c r="A2213" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2213" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2213" t="inlineStr"/>
-      <c r="D2213" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2213" t="inlineStr"/>
-      <c r="F2213" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2214">
-      <c r="A2214" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2214" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C2214" t="inlineStr"/>
-      <c r="D2214" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E2214" t="inlineStr"/>
-      <c r="F2214" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2215">
-      <c r="A2215" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2215" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2215" t="inlineStr"/>
-      <c r="D2215" t="inlineStr"/>
-      <c r="E2215" t="inlineStr"/>
-      <c r="F2215" t="inlineStr"/>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2216">
-      <c r="A2216" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2216" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2216" t="inlineStr"/>
-      <c r="D2216" t="inlineStr"/>
-      <c r="E2216" t="inlineStr"/>
-      <c r="F2216" t="inlineStr"/>
-      <c r="G2216" t="inlineStr">
-        <is>
           <t>3</t>
         </is>
       </c>
